--- a/data/trans_dic/P36B_3_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B_3_R-Habitat-trans_dic.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,6 +520,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,31 +543,85 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -542,11 +633,20 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,15 +656,60 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>31,75%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>44,68%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>43,34%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>67,34%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>41,38%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>62,35%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>46,99%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>77,55%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>36,51%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>53,36%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>45,15%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>73,1%</t>
         </is>
@@ -579,15 +724,60 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>22,54; 40,93</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>35,35; 53,42</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>33,76; 53,06</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>57,8; 76,43</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>32,39; 49,76</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>51,81; 71,43</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>38,49; 56,97</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>70,23; 82,83</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>30,13; 42,66</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>46,32; 59,94</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>38,28; 51,67</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>67,55; 78,09</t>
         </is>
@@ -596,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,15 +796,60 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>19,99%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>40,54%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>30,31%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>71,57%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>27,54%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>44,19%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>37,67%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>76,4%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>23,76%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>42,36%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>33,99%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>74,08%</t>
         </is>
@@ -629,15 +864,60 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>16,91; 23,23</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>36,51; 44,64</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>26,5; 34,31</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>66,94; 75,71</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>23,86; 31,64</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>39,69; 48,03</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>33,73; 41,91</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>73,46; 79,13</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>21,43; 26,42</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>39,42; 45,32</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>31,13; 36,7</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
         <is>
           <t>71,64; 76,67</t>
         </is>
@@ -646,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,15 +936,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>21,51%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>34,08%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>23,95%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>74,8%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>27,34%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>44,85%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>29,43%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>80,35%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>24,43%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>39,5%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>26,72%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>77,6%</t>
         </is>
@@ -679,15 +1004,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>18,79; 24,37</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>31,22; 37,32</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>21,31; 26,94</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>71,32; 79,12</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>24,54; 30,43</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>41,75; 48,14</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>26,64; 32,32</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>77,9; 82,54</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>22,4; 26,35</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>37,11; 41,48</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>24,74; 28,67</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>75,47; 79,8</t>
         </is>
@@ -696,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,15 +1076,60 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>20,93%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>27,31%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>23,74%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>67,69%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>29,89%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>34,36%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>32,38%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>75,68%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>25,43%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>30,88%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>28,15%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>72,05%</t>
         </is>
@@ -729,15 +1144,60 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>18,09; 24,35</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>24,07; 31,01</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>20,55; 27,29</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>63,44; 71,87</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>26,61; 33,84</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>31,01; 37,95</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>28,91; 36,05</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>70,52; 83,96</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>23,13; 27,76</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>28,5; 33,6</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>25,77; 30,3</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
         <is>
           <t>68,7; 78,09</t>
         </is>
@@ -756,15 +1216,60 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>19,7%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>40,82%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>31,47%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>69,88%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>25,74%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>55,55%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>41,11%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>75,5%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>22,87%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>48,55%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>36,54%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>72,93%</t>
         </is>
@@ -779,15 +1284,60 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>17,32; 22,29</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>37,5; 44,29</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>28,64; 34,77</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>66,58; 73,15</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>23,1; 28,55</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>52,67; 58,72</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>37,84; 44,27</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
         <is>
           <t>72,67; 78,01</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>20,94; 24,68</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>46,46; 50,68</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>34,01; 38,62</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
         <is>
           <t>70,79; 75,18</t>
         </is>
@@ -806,15 +1356,60 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>20,96%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>35,92%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>27,7%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>71,12%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>27,87%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>46,15%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>35,38%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>77,1%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>24,47%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>41,13%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>31,62%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
         <is>
           <t>74,28%</t>
         </is>
@@ -829,15 +1424,60 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>19,55; 22,29</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>34,02; 37,55</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>26,1; 29,28</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>69,22; 73,14</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>26,39; 29,37</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>44,39; 47,97</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>33,71; 37,09</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>75,74; 79,32</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>23,4; 25,59</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>39,8; 42,28</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>30,33; 32,76</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
         <is>
           <t>72,98; 75,99</t>
         </is>
@@ -851,13 +1491,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P36B_3_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B_3_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,54; 40,93</t>
+          <t>22,94; 40,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35,35; 53,42</t>
+          <t>35,79; 54,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>33,76; 53,06</t>
+          <t>32,94; 52,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>57,8; 76,43</t>
+          <t>57,31; 76,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>32,39; 49,76</t>
+          <t>33,3; 49,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>51,81; 71,43</t>
+          <t>52,11; 71,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>38,49; 56,97</t>
+          <t>37,84; 55,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>70,23; 82,83</t>
+          <t>71,04; 83,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>30,13; 42,66</t>
+          <t>29,95; 42,83</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>46,32; 59,94</t>
+          <t>46,56; 60,16</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>38,28; 51,67</t>
+          <t>38,21; 52,03</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>67,55; 78,09</t>
+          <t>67,62; 77,88</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,91; 23,23</t>
+          <t>16,53; 23,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36,51; 44,64</t>
+          <t>37,05; 45,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,5; 34,31</t>
+          <t>26,42; 34,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>66,94; 75,71</t>
+          <t>67,51; 75,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,86; 31,64</t>
+          <t>23,8; 31,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>39,69; 48,03</t>
+          <t>40,16; 48,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,73; 41,91</t>
+          <t>33,18; 41,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>73,46; 79,13</t>
+          <t>72,62; 78,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,43; 26,42</t>
+          <t>21,31; 26,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>39,42; 45,32</t>
+          <t>39,49; 45,4</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>31,13; 36,7</t>
+          <t>31,24; 36,87</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>71,64; 76,67</t>
+          <t>71,49; 76,23</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,79; 24,37</t>
+          <t>18,96; 24,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>31,22; 37,32</t>
+          <t>30,8; 37,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,31; 26,94</t>
+          <t>21,19; 26,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>71,32; 79,12</t>
+          <t>71,4; 79,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,54; 30,43</t>
+          <t>24,25; 30,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>41,75; 48,14</t>
+          <t>41,52; 47,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,64; 32,32</t>
+          <t>26,63; 32,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>77,9; 82,54</t>
+          <t>77,99; 82,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,4; 26,35</t>
+          <t>22,51; 26,53</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>37,11; 41,48</t>
+          <t>37,55; 42,02</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>24,74; 28,67</t>
+          <t>24,69; 28,85</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>75,47; 79,8</t>
+          <t>75,65; 79,86</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,09; 24,35</t>
+          <t>17,74; 24,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,07; 31,01</t>
+          <t>23,89; 30,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,55; 27,29</t>
+          <t>20,49; 26,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>63,44; 71,87</t>
+          <t>63,75; 71,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,61; 33,84</t>
+          <t>26,16; 33,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,01; 37,95</t>
+          <t>30,97; 38,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,91; 36,05</t>
+          <t>28,91; 35,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>70,52; 83,96</t>
+          <t>70,59; 83,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,13; 27,76</t>
+          <t>23,05; 27,83</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,5; 33,6</t>
+          <t>28,53; 33,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>25,77; 30,3</t>
+          <t>26,08; 31,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>68,7; 78,09</t>
+          <t>68,82; 78,29</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,32; 22,29</t>
+          <t>17,53; 22,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>37,5; 44,29</t>
+          <t>37,62; 44,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>28,64; 34,77</t>
+          <t>28,67; 34,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>66,58; 73,15</t>
+          <t>66,38; 72,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,1; 28,55</t>
+          <t>23,07; 28,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>52,67; 58,72</t>
+          <t>52,38; 58,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>37,84; 44,27</t>
+          <t>38,32; 44,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>72,67; 78,01</t>
+          <t>72,45; 77,97</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20,94; 24,68</t>
+          <t>21,12; 24,73</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>46,46; 50,68</t>
+          <t>46,07; 50,7</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>34,01; 38,62</t>
+          <t>34,58; 38,84</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>70,79; 75,18</t>
+          <t>70,73; 74,8</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>19,55; 22,29</t>
+          <t>19,56; 22,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>34,02; 37,55</t>
+          <t>34,22; 37,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>26,1; 29,28</t>
+          <t>26,29; 29,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>69,22; 73,14</t>
+          <t>69,28; 73,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,39; 29,37</t>
+          <t>26,28; 29,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>44,39; 47,97</t>
+          <t>44,52; 48,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>33,71; 37,09</t>
+          <t>33,7; 37,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>75,74; 79,32</t>
+          <t>75,57; 79,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>23,4; 25,59</t>
+          <t>23,49; 25,52</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>39,8; 42,28</t>
+          <t>39,82; 42,3</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>30,33; 32,76</t>
+          <t>30,52; 32,76</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>72,98; 75,99</t>
+          <t>72,97; 75,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B_3_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B_3_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>31,75%</t>
+          <t>21,95%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>44,68%</t>
+          <t>41,23%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>43,34%</t>
+          <t>32,55%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>67,34%</t>
+          <t>69,89%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>41,38%</t>
+          <t>29,81%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>62,35%</t>
+          <t>47,1%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>46,99%</t>
+          <t>39,24%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>77,55%</t>
+          <t>76,03%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>36,51%</t>
+          <t>25,86%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>53,36%</t>
+          <t>44,15%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>45,15%</t>
+          <t>35,9%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>73,1%</t>
+          <t>73,06%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,94; 40,43</t>
+          <t>18,75; 25,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35,79; 54,39</t>
+          <t>37,45; 45,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>32,94; 52,03</t>
+          <t>29,06; 36,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>57,31; 76,43</t>
+          <t>65,46; 73,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>33,3; 49,86</t>
+          <t>26,67; 33,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>52,11; 71,85</t>
+          <t>43,35; 51,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>37,84; 55,27</t>
+          <t>35,32; 42,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>71,04; 83,08</t>
+          <t>73,19; 78,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,95; 42,83</t>
+          <t>23,54; 27,94</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>46,56; 60,16</t>
+          <t>41,59; 46,91</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>38,21; 52,03</t>
+          <t>33,33; 38,51</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>67,62; 77,88</t>
+          <t>70,39; 75,47</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>21,51%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>40,54%</t>
+          <t>34,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>30,31%</t>
+          <t>23,95%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>71,57%</t>
+          <t>77,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>27,54%</t>
+          <t>27,34%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>44,19%</t>
+          <t>44,85%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>37,67%</t>
+          <t>29,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>76,4%</t>
+          <t>79,8%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>23,76%</t>
+          <t>24,43%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>42,36%</t>
+          <t>39,5%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>33,99%</t>
+          <t>26,72%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>74,08%</t>
+          <t>78,55%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,53; 23,22</t>
+          <t>18,96; 24,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>37,05; 45,02</t>
+          <t>30,8; 37,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,42; 34,54</t>
+          <t>21,19; 26,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>67,51; 75,81</t>
+          <t>70,44; 88,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,8; 31,54</t>
+          <t>24,25; 30,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,16; 48,33</t>
+          <t>41,52; 47,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,18; 41,55</t>
+          <t>26,63; 32,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>72,62; 78,96</t>
+          <t>77,38; 82,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,31; 26,31</t>
+          <t>22,51; 26,53</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>39,49; 45,4</t>
+          <t>37,55; 42,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>31,24; 36,87</t>
+          <t>24,69; 28,85</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>71,49; 76,23</t>
+          <t>75,0; 85,4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>21,51%</t>
+          <t>20,93%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>34,08%</t>
+          <t>27,31%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>23,74%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>74,8%</t>
+          <t>67,27%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>27,34%</t>
+          <t>29,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>44,85%</t>
+          <t>34,36%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>29,43%</t>
+          <t>32,38%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>80,35%</t>
+          <t>78,54%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>24,43%</t>
+          <t>25,43%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>39,5%</t>
+          <t>30,88%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>26,72%</t>
+          <t>28,15%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>77,6%</t>
+          <t>73,69%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,96; 24,37</t>
+          <t>17,74; 24,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,8; 37,16</t>
+          <t>23,89; 30,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,19; 26,84</t>
+          <t>20,49; 26,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>71,4; 79,66</t>
+          <t>63,28; 71,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,25; 30,35</t>
+          <t>26,16; 33,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>41,52; 47,95</t>
+          <t>30,97; 38,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,63; 32,57</t>
+          <t>28,91; 35,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>77,99; 82,56</t>
+          <t>71,21; 88,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,51; 26,53</t>
+          <t>23,05; 27,83</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>37,55; 42,02</t>
+          <t>28,53; 33,58</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>24,69; 28,85</t>
+          <t>26,08; 31,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>75,65; 79,86</t>
+          <t>68,94; 83,12</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>19,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>27,31%</t>
+          <t>40,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>31,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>67,69%</t>
+          <t>68,53%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>29,89%</t>
+          <t>25,74%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>34,36%</t>
+          <t>55,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,38%</t>
+          <t>41,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>75,68%</t>
+          <t>76,32%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,43%</t>
+          <t>22,87%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>30,88%</t>
+          <t>48,55%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>28,15%</t>
+          <t>36,54%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>72,05%</t>
+          <t>72,75%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,74; 24,39</t>
+          <t>17,53; 22,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,89; 30,86</t>
+          <t>37,62; 44,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,49; 26,75</t>
+          <t>28,67; 34,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>63,75; 71,67</t>
+          <t>64,8; 71,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,16; 33,39</t>
+          <t>23,07; 28,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,97; 38,1</t>
+          <t>52,38; 58,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,91; 35,89</t>
+          <t>38,32; 44,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>70,59; 83,67</t>
+          <t>73,34; 81,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,05; 27,83</t>
+          <t>21,12; 24,73</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,53; 33,58</t>
+          <t>46,07; 50,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>26,08; 31,0</t>
+          <t>34,58; 38,84</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>68,82; 78,29</t>
+          <t>70,42; 76,0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>40,82%</t>
+          <t>35,92%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>31,47%</t>
+          <t>27,7%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>69,88%</t>
+          <t>71,63%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>25,74%</t>
+          <t>27,87%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>55,55%</t>
+          <t>46,15%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>41,11%</t>
+          <t>35,38%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>75,5%</t>
+          <t>77,74%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>22,87%</t>
+          <t>24,47%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>48,55%</t>
+          <t>41,13%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>36,54%</t>
+          <t>31,62%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>72,93%</t>
+          <t>74,77%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,53; 22,63</t>
+          <t>19,56; 22,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>37,62; 44,01</t>
+          <t>34,22; 37,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>28,67; 34,92</t>
+          <t>26,29; 29,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>66,38; 72,87</t>
+          <t>68,68; 78,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,07; 28,41</t>
+          <t>26,28; 29,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>52,38; 58,38</t>
+          <t>44,52; 48,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>38,32; 44,45</t>
+          <t>33,7; 37,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>72,45; 77,97</t>
+          <t>75,69; 82,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,12; 24,73</t>
+          <t>23,49; 25,52</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>46,07; 50,7</t>
+          <t>39,82; 42,3</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>34,58; 38,84</t>
+          <t>30,52; 32,76</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>70,73; 74,8</t>
+          <t>72,9; 77,91</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>20,96%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>35,92%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>27,7%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>71,12%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>27,87%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>46,15%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>35,38%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>77,1%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>24,47%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>41,13%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>31,62%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>74,28%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>19,56; 22,33</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>34,22; 37,6</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>26,29; 29,24</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>69,28; 73,18</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>26,28; 29,32</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>44,52; 48,08</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>33,7; 37,01</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>75,57; 79,22</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>23,49; 25,52</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>39,82; 42,3</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>30,52; 32,76</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>72,97; 75,82</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P36B_3_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B_3_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,75; 25,2</t>
+          <t>18,53; 24,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>37,45; 45,22</t>
+          <t>37,67; 45,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,06; 36,24</t>
+          <t>28,86; 36,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>65,46; 73,56</t>
+          <t>65,87; 73,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,67; 33,28</t>
+          <t>26,15; 33,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,35; 51,06</t>
+          <t>42,75; 50,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,32; 42,98</t>
+          <t>35,36; 43,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>73,19; 78,76</t>
+          <t>73,23; 78,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,54; 27,94</t>
+          <t>23,66; 28,4</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>41,59; 46,91</t>
+          <t>41,46; 47,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>33,33; 38,51</t>
+          <t>33,31; 38,5</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>70,39; 75,47</t>
+          <t>70,29; 75,3</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,96; 24,37</t>
+          <t>18,91; 24,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,8; 37,16</t>
+          <t>30,9; 37,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,19; 26,84</t>
+          <t>21,43; 26,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>70,44; 88,46</t>
+          <t>70,73; 87,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,25; 30,35</t>
+          <t>24,48; 30,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>41,52; 47,95</t>
+          <t>41,93; 47,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,63; 32,57</t>
+          <t>26,6; 32,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>77,38; 82,03</t>
+          <t>77,49; 81,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,51; 26,53</t>
+          <t>22,46; 26,54</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>37,55; 42,02</t>
+          <t>37,08; 41,61</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>24,69; 28,85</t>
+          <t>24,68; 28,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>75,0; 85,4</t>
+          <t>74,96; 85,12</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,74; 24,39</t>
+          <t>17,79; 24,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,89; 30,86</t>
+          <t>23,85; 31,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,49; 26,75</t>
+          <t>20,68; 26,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>63,28; 71,21</t>
+          <t>62,86; 71,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,16; 33,39</t>
+          <t>26,63; 33,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,97; 38,1</t>
+          <t>30,81; 37,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>28,91; 35,89</t>
+          <t>28,91; 35,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>71,21; 88,37</t>
+          <t>71,05; 88,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>23,05; 27,83</t>
+          <t>23,18; 27,73</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28,53; 33,58</t>
+          <t>28,21; 33,24</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>26,08; 31,0</t>
+          <t>25,84; 30,56</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>68,94; 83,12</t>
+          <t>69,01; 82,26</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,53; 22,63</t>
+          <t>17,28; 22,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>37,62; 44,01</t>
+          <t>37,22; 44,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,67; 34,92</t>
+          <t>28,44; 34,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>64,8; 71,71</t>
+          <t>64,84; 71,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,07; 28,41</t>
+          <t>23,19; 28,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,38; 58,38</t>
+          <t>52,59; 58,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>38,32; 44,45</t>
+          <t>38,13; 44,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>73,34; 81,01</t>
+          <t>73,25; 80,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,12; 24,73</t>
+          <t>21,1; 24,7</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>46,07; 50,7</t>
+          <t>46,55; 51,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>34,58; 38,84</t>
+          <t>34,24; 38,76</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>70,42; 76,0</t>
+          <t>70,58; 75,89</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19,56; 22,33</t>
+          <t>19,53; 22,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>34,22; 37,6</t>
+          <t>34,31; 37,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>26,29; 29,24</t>
+          <t>26,1; 29,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>68,68; 78,1</t>
+          <t>68,72; 77,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>26,28; 29,32</t>
+          <t>26,32; 29,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>44,52; 48,08</t>
+          <t>44,42; 48,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,7; 37,01</t>
+          <t>33,64; 37,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>75,69; 82,06</t>
+          <t>75,69; 81,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,49; 25,52</t>
+          <t>23,34; 25,53</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>39,82; 42,3</t>
+          <t>39,86; 42,4</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>30,52; 32,76</t>
+          <t>30,48; 32,75</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>72,9; 77,91</t>
+          <t>72,8; 77,74</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consume verduras y hortalizas a diario</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>152322</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>289570</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>218329</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>442875</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>205193</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>328344</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>262914</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>512954</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>357515</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>617914</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>481243</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>955829</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>128601; 173269</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>264572; 317850</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>193597; 244921</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>417390; 467050</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>180013; 227764</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>297959; 354360</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>236883; 288967</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>494077; 532185</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>327131; 392637</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>580210; 657742</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>446518; 516185</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>919618; 985223</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>710</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1223</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>744</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>206918</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>345510</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>244605</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>924285</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>264456</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>461550</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>306646</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>763056</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>471374</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>807060</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>551251</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1687341</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>181843; 234770</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>313270; 375665</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>218823; 274427</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>843137; 1047967</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>236803; 294217</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>431544; 493424</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>277162; 339069</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>740920; 782544</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>433355; 512079</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>757520; 850072</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>509173; 590411</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1610307; 1828485</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1250</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>142015</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>206342</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>177931</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>474035</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>204426</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>266699</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>252126</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>733101</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>346441</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>473041</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>430057</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1207136</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>120736; 163941</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>180227; 234347</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>154940; 201000</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>442996; 503662</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>182087; 230832</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>239117; 294749</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>225112; 280073</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>663115; 829103</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>315808; 377738</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>432018; 509093</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>394774; 466920</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1130397; 1347528</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>722</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1195</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>915</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>668</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1917</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>185446</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>386886</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>294472</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>634575</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>267287</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>581201</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>426527</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>834652</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>452734</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>968087</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>721000</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1469227</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>162693; 209277</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>352780; 417084</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>266139; 321929</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>600427; 663323</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>240834; 295082</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>550154; 615689</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>395577; 459115</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>801112; 883152</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>417693; 489014</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>928265; 1017475</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>675673; 764839</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1425409; 1532660</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1152</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2425</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>908</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1513</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1157</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4151</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1579</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2665</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2044</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>6576</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>686702</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1228309</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>935337</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2475771</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>941362</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1637794</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1248213</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2843761</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1628064</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2866103</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2183550</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>5319533</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>639768; 736864</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1173373; 1295687</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>881498; 988985</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2375121; 2687668</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>889243; 996320</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1576366; 1704181</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1186791; 1309476</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2768623; 2980853</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1552715; 1698620</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2777249; 2954415</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2104957; 2261453</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>5178964; 5530774</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>